--- a/pacientes.xlsx
+++ b/pacientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projetos\isc\json2hl7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AF6070-4019-46F0-B19D-545644DD18D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93ED7D5-B5D7-4664-BF87-33163095EF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1031716F-1CB5-42B8-95AF-3766582A0E30}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>MRN</t>
   </si>
@@ -470,7 +470,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,6 +532,9 @@
       <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -555,6 +558,9 @@
       <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -578,6 +584,9 @@
       <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -601,6 +610,9 @@
       <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -624,6 +636,9 @@
       <c r="G6" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -646,6 +661,9 @@
       </c>
       <c r="G7" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
